--- a/sofaplayer/Serie_A/Milan_stats.xlsx
+++ b/sofaplayer/Serie_A/Milan_stats.xlsx
@@ -1035,16 +1035,16 @@
         <v>769333</v>
       </c>
       <c r="E2" t="n">
-        <v>6.7529411764706</v>
+        <v>6.7277777777778</v>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>851</v>
+        <v>896</v>
       </c>
       <c r="I2" t="n">
         <v>2</v>
@@ -1056,7 +1056,7 @@
         <v>6.9745</v>
       </c>
       <c r="L2" t="n">
-        <v>170.2</v>
+        <v>179.2</v>
       </c>
       <c r="M2" t="n">
         <v>20</v>
@@ -1101,10 +1101,10 @@
         <v>2</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.71544796</v>
+        <v>0.72035162</v>
       </c>
       <c r="AB2" t="n">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="AC2" t="n">
         <v>2</v>
@@ -1113,22 +1113,22 @@
         <v>9</v>
       </c>
       <c r="AE2" t="n">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="AF2" t="n">
-        <v>88.709677419355</v>
+        <v>89.230769230769</v>
       </c>
       <c r="AG2" t="n">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="AH2" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AI2" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="AJ2" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AK2" t="n">
         <v>4</v>
@@ -1140,7 +1140,7 @@
         <v>2</v>
       </c>
       <c r="AN2" t="n">
-        <v>66.666666666667</v>
+        <v>50</v>
       </c>
       <c r="AO2" t="n">
         <v>1</v>
@@ -1176,28 +1176,28 @@
         <v>4</v>
       </c>
       <c r="AZ2" t="n">
-        <v>36.363636363636</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BA2" t="n">
         <v>35</v>
       </c>
       <c r="BB2" t="n">
-        <v>48.611111111111</v>
+        <v>47.297297297297</v>
       </c>
       <c r="BC2" t="n">
         <v>23</v>
       </c>
       <c r="BD2" t="n">
-        <v>58.974358974359</v>
+        <v>57.5</v>
       </c>
       <c r="BE2" t="n">
         <v>12</v>
       </c>
       <c r="BF2" t="n">
-        <v>36.363636363636</v>
+        <v>35.294117647059</v>
       </c>
       <c r="BG2" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BH2" t="n">
         <v>5</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>114.8</v>
+        <v>121.1</v>
       </c>
       <c r="BR2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS2" t="n">
         <v>7</v>
@@ -1263,10 +1263,10 @@
         <v>5</v>
       </c>
       <c r="CC2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CD2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1311,16 +1311,16 @@
         <v>9</v>
       </c>
       <c r="CS2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CT2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CU2" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="CV2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="DG2" t="n">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>132645</v>
       </c>
       <c r="E4" t="n">
-        <v>6.6571428571429</v>
+        <v>6.55</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -1765,22 +1765,22 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>1.9096</v>
+        <v>2.9512</v>
       </c>
       <c r="L4" t="n">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="M4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N4" t="n">
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
-        <v>14.285714285714</v>
+        <v>11.111111111111</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1807,16 +1807,16 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.20845671</v>
+        <v>0.2170231</v>
       </c>
       <c r="AB4" t="n">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="AC4" t="n">
         <v>2</v>
@@ -1825,22 +1825,22 @@
         <v>5</v>
       </c>
       <c r="AE4" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AF4" t="n">
-        <v>74.545454545455</v>
+        <v>73.846153846154</v>
       </c>
       <c r="AG4" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AH4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AJ4" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AK4" t="n">
         <v>2</v>
@@ -1864,13 +1864,13 @@
         <v>1</v>
       </c>
       <c r="AR4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS4" t="n">
         <v>1</v>
       </c>
       <c r="AT4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AU4" t="n">
         <v>2</v>
@@ -1891,35 +1891,35 @@
         <v>66.666666666667</v>
       </c>
       <c r="BA4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB4" t="n">
-        <v>41.935483870968</v>
+        <v>41.176470588235</v>
       </c>
       <c r="BC4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD4" t="n">
-        <v>50</v>
+        <v>52.941176470588</v>
       </c>
       <c r="BE4" t="n">
         <v>5</v>
       </c>
       <c r="BF4" t="n">
-        <v>33.333333333333</v>
+        <v>29.411764705882</v>
       </c>
       <c r="BG4" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BH4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI4" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ4" t="n">
         <v>5</v>
       </c>
-      <c r="BJ4" t="n">
-        <v>4</v>
-      </c>
       <c r="BK4" t="n">
         <v>0</v>
       </c>
@@ -1933,31 +1933,31 @@
         <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP4" t="n">
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>46.6</v>
+        <v>52.4</v>
       </c>
       <c r="BR4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS4" t="n">
         <v>1</v>
       </c>
       <c r="BT4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BW4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX4" t="n">
         <v>0</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CA4" t="n">
         <v>0</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CK4" t="n">
         <v>0</v>
@@ -2026,19 +2026,19 @@
         <v>3</v>
       </c>
       <c r="CT4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CV4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="CW4" t="n">
         <v>0</v>
       </c>
       <c r="CX4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY4" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="DG4" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2103,40 +2103,40 @@
         <v>15466</v>
       </c>
       <c r="E5" t="n">
-        <v>7.5</v>
+        <v>7.5391304347826</v>
       </c>
       <c r="F5" t="n">
+        <v>23</v>
+      </c>
+      <c r="G5" t="n">
         <v>22</v>
       </c>
-      <c r="G5" t="n">
-        <v>21</v>
-      </c>
       <c r="H5" t="n">
-        <v>1831</v>
+        <v>1921</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5703</v>
+        <v>1.2518</v>
       </c>
       <c r="L5" t="n">
-        <v>1831</v>
+        <v>960.5</v>
       </c>
       <c r="M5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>9.090909090909101</v>
+        <v>16.666666666667</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y5" t="n">
         <v>1</v>
@@ -2169,10 +2169,10 @@
         <v>3</v>
       </c>
       <c r="AA5" t="n">
-        <v>3.32072422</v>
+        <v>3.40654542</v>
       </c>
       <c r="AB5" t="n">
-        <v>1691</v>
+        <v>1801</v>
       </c>
       <c r="AC5" t="n">
         <v>4</v>
@@ -2181,52 +2181,52 @@
         <v>39</v>
       </c>
       <c r="AE5" t="n">
-        <v>1245</v>
+        <v>1337</v>
       </c>
       <c r="AF5" t="n">
-        <v>90.348330914369</v>
+        <v>90.64406779661</v>
       </c>
       <c r="AG5" t="n">
-        <v>1378</v>
+        <v>1475</v>
       </c>
       <c r="AH5" t="n">
-        <v>519</v>
+        <v>559</v>
       </c>
       <c r="AI5" t="n">
-        <v>726</v>
+        <v>778</v>
       </c>
       <c r="AJ5" t="n">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="AK5" t="n">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="AL5" t="n">
-        <v>73.04964539007101</v>
+        <v>73.376623376623</v>
       </c>
       <c r="AM5" t="n">
         <v>23</v>
       </c>
       <c r="AN5" t="n">
-        <v>30.263157894737</v>
+        <v>29.113924050633</v>
       </c>
       <c r="AO5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP5" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AQ5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR5" t="n">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AS5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU5" t="n">
         <v>4</v>
@@ -2241,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="AY5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ5" t="n">
-        <v>47.619047619048</v>
+        <v>47.826086956522</v>
       </c>
       <c r="BA5" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="BB5" t="n">
-        <v>55.474452554745</v>
+        <v>54.929577464789</v>
       </c>
       <c r="BC5" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="BD5" t="n">
-        <v>56.779661016949</v>
+        <v>56.09756097561</v>
       </c>
       <c r="BE5" t="n">
         <v>9</v>
@@ -2265,10 +2265,10 @@
         <v>47.368421052632</v>
       </c>
       <c r="BG5" t="n">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="BH5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BI5" t="n">
         <v>23</v>
@@ -2289,22 +2289,22 @@
         <v>7</v>
       </c>
       <c r="BO5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BP5" t="n">
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>165</v>
+        <v>173.4</v>
       </c>
       <c r="BR5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BT5" t="n">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
@@ -2322,7 +2322,7 @@
         <v>1</v>
       </c>
       <c r="BZ5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CA5" t="n">
         <v>9</v>
@@ -2331,10 +2331,10 @@
         <v>10</v>
       </c>
       <c r="CC5" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="CD5" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="CE5" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CK5" t="n">
         <v>0</v>
@@ -2379,13 +2379,13 @@
         <v>38</v>
       </c>
       <c r="CS5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CT5" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="CU5" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="CV5" t="n">
         <v>10</v>
@@ -2400,13 +2400,13 @@
         <v>0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="DA5" t="n">
         <v>17</v>
       </c>
       <c r="DB5" t="n">
-        <v>50</v>
+        <v>48.571428571429</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>554</v>
+        <v>595</v>
       </c>
       <c r="DG5" t="n">
-        <v>824</v>
+        <v>880</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2459,16 +2459,16 @@
         <v>851284</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>6.9588235294118</v>
       </c>
       <c r="F6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" t="n">
         <v>13</v>
       </c>
       <c r="H6" t="n">
-        <v>1072</v>
+        <v>1090</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
@@ -2480,7 +2480,7 @@
         <v>5.3022</v>
       </c>
       <c r="L6" t="n">
-        <v>153.14285714286</v>
+        <v>155.71428571429</v>
       </c>
       <c r="M6" t="n">
         <v>33</v>
@@ -2525,10 +2525,10 @@
         <v>2</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.86203319</v>
+        <v>1.87213399</v>
       </c>
       <c r="AB6" t="n">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="AC6" t="n">
         <v>6</v>
@@ -2537,22 +2537,22 @@
         <v>10</v>
       </c>
       <c r="AE6" t="n">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="AF6" t="n">
-        <v>82.26299694189601</v>
+        <v>82.142857142857</v>
       </c>
       <c r="AG6" t="n">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="AH6" t="n">
         <v>83</v>
       </c>
       <c r="AI6" t="n">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="AJ6" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AK6" t="n">
         <v>9</v>
@@ -2576,7 +2576,7 @@
         <v>6</v>
       </c>
       <c r="AR6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS6" t="n">
         <v>4</v>
@@ -2600,34 +2600,34 @@
         <v>12</v>
       </c>
       <c r="AZ6" t="n">
-        <v>44.444444444444</v>
+        <v>41.379310344828</v>
       </c>
       <c r="BA6" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BB6" t="n">
-        <v>46.491228070175</v>
+        <v>45</v>
       </c>
       <c r="BC6" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BD6" t="n">
-        <v>45.679012345679</v>
+        <v>44.186046511628</v>
       </c>
       <c r="BE6" t="n">
         <v>16</v>
       </c>
       <c r="BF6" t="n">
-        <v>48.484848484848</v>
+        <v>47.058823529412</v>
       </c>
       <c r="BG6" t="n">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="BH6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BI6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BJ6" t="n">
         <v>5</v>
@@ -2651,16 +2651,16 @@
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>112</v>
+        <v>118.3</v>
       </c>
       <c r="BR6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS6" t="n">
         <v>9</v>
       </c>
       <c r="BT6" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>9</v>
       </c>
       <c r="CB6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CC6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CD6" t="n">
         <v>13</v>
@@ -2735,16 +2735,16 @@
         <v>10</v>
       </c>
       <c r="CS6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="CT6" t="n">
         <v>5</v>
       </c>
       <c r="CU6" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="CV6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CW6" t="n">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>92</v>
       </c>
       <c r="DG6" t="n">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -2815,16 +2815,16 @@
         <v>817957</v>
       </c>
       <c r="E7" t="n">
-        <v>7.13125</v>
+        <v>7.1058823529412</v>
       </c>
       <c r="F7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>879</v>
+        <v>892</v>
       </c>
       <c r="I7" t="n">
         <v>3</v>
@@ -2836,7 +2836,7 @@
         <v>5.7785</v>
       </c>
       <c r="L7" t="n">
-        <v>109.875</v>
+        <v>111.5</v>
       </c>
       <c r="M7" t="n">
         <v>30</v>
@@ -2881,10 +2881,10 @@
         <v>2</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.041649</v>
+        <v>2.0626548</v>
       </c>
       <c r="AB7" t="n">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="AC7" t="n">
         <v>5</v>
@@ -2893,28 +2893,28 @@
         <v>23</v>
       </c>
       <c r="AE7" t="n">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="AF7" t="n">
-        <v>87.106017191977</v>
+        <v>86.90807799442899</v>
       </c>
       <c r="AG7" t="n">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="AH7" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AI7" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AJ7" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AK7" t="n">
         <v>4</v>
       </c>
       <c r="AL7" t="n">
-        <v>40</v>
+        <v>36.363636363636</v>
       </c>
       <c r="AM7" t="n">
         <v>8</v>
@@ -2926,13 +2926,13 @@
         <v>3</v>
       </c>
       <c r="AP7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ7" t="n">
         <v>7</v>
       </c>
       <c r="AR7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AS7" t="n">
         <v>6</v>
@@ -2959,16 +2959,16 @@
         <v>36.111111111111</v>
       </c>
       <c r="BA7" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="BB7" t="n">
-        <v>44.230769230769</v>
+        <v>44.761904761905</v>
       </c>
       <c r="BC7" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BD7" t="n">
-        <v>46.341463414634</v>
+        <v>46.987951807229</v>
       </c>
       <c r="BE7" t="n">
         <v>8</v>
@@ -2977,7 +2977,7 @@
         <v>36.363636363636</v>
       </c>
       <c r="BG7" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="BH7" t="n">
         <v>8</v>
@@ -3007,16 +3007,16 @@
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>114.1</v>
+        <v>120.8</v>
       </c>
       <c r="BR7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS7" t="n">
         <v>10</v>
       </c>
       <c r="BT7" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>11</v>
       </c>
       <c r="CC7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CD7" t="n">
         <v>6</v>
@@ -3112,13 +3112,13 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="DA7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DB7" t="n">
-        <v>55.555555555556</v>
+        <v>60</v>
       </c>
       <c r="DC7" t="n">
         <v>0</v>
@@ -3130,16 +3130,16 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="DG7" t="n">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
       </c>
       <c r="DI7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ7" t="n">
         <v>2166308</v>
@@ -3171,16 +3171,16 @@
         <v>250737</v>
       </c>
       <c r="E8" t="n">
-        <v>7.30625</v>
+        <v>7.2588235294118</v>
       </c>
       <c r="F8" t="n">
+        <v>17</v>
+      </c>
+      <c r="G8" t="n">
         <v>16</v>
       </c>
-      <c r="G8" t="n">
-        <v>15</v>
-      </c>
       <c r="H8" t="n">
-        <v>1380</v>
+        <v>1470</v>
       </c>
       <c r="I8" t="n">
         <v>2</v>
@@ -3189,13 +3189,13 @@
         <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>1.9062</v>
+        <v>1.9321</v>
       </c>
       <c r="L8" t="n">
-        <v>345</v>
+        <v>367.5</v>
       </c>
       <c r="M8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" t="n">
         <v>6</v>
@@ -3204,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>18.181818181818</v>
+        <v>17.391304347826</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>4</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.73059958</v>
+        <v>1.75826768</v>
       </c>
       <c r="AB8" t="n">
-        <v>985</v>
+        <v>1070</v>
       </c>
       <c r="AC8" t="n">
         <v>5</v>
@@ -3249,52 +3249,52 @@
         <v>14</v>
       </c>
       <c r="AE8" t="n">
-        <v>604</v>
+        <v>662</v>
       </c>
       <c r="AF8" t="n">
-        <v>85.07042253521099</v>
+        <v>85.199485199485</v>
       </c>
       <c r="AG8" t="n">
-        <v>710</v>
+        <v>777</v>
       </c>
       <c r="AH8" t="n">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="AI8" t="n">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="AJ8" t="n">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL8" t="n">
-        <v>63.888888888889</v>
+        <v>63.157894736842</v>
       </c>
       <c r="AM8" t="n">
         <v>8</v>
       </c>
       <c r="AN8" t="n">
-        <v>26.666666666667</v>
+        <v>25</v>
       </c>
       <c r="AO8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ8" t="n">
         <v>5</v>
       </c>
       <c r="AR8" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AS8" t="n">
         <v>14</v>
       </c>
       <c r="AT8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AU8" t="n">
         <v>6</v>
@@ -3309,37 +3309,37 @@
         <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ8" t="n">
-        <v>46.428571428571</v>
+        <v>46.666666666667</v>
       </c>
       <c r="BA8" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>52.513966480447</v>
+        <v>53.723404255319</v>
       </c>
       <c r="BC8" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="BD8" t="n">
-        <v>49.253731343284</v>
+        <v>50.354609929078</v>
       </c>
       <c r="BE8" t="n">
+        <v>30</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>63.829787234043</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>208</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>20</v>
+      </c>
+      <c r="BI8" t="n">
         <v>28</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>62.222222222222</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>194</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>19</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>25</v>
       </c>
       <c r="BJ8" t="n">
         <v>4</v>
@@ -3348,7 +3348,7 @@
         <v>3</v>
       </c>
       <c r="BL8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM8" t="n">
         <v>0</v>
@@ -3357,28 +3357,28 @@
         <v>9</v>
       </c>
       <c r="BO8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BP8" t="n">
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>116.9</v>
+        <v>123.4</v>
       </c>
       <c r="BR8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS8" t="n">
         <v>8</v>
       </c>
       <c r="BT8" t="n">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="BZ8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CA8" t="n">
         <v>5</v>
@@ -3399,10 +3399,10 @@
         <v>20</v>
       </c>
       <c r="CC8" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="CD8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="CE8" t="n">
         <v>0</v>
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CK8" t="n">
         <v>0</v>
@@ -3447,13 +3447,13 @@
         <v>14</v>
       </c>
       <c r="CS8" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="CT8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CU8" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="CV8" t="n">
         <v>17</v>
@@ -3468,16 +3468,16 @@
         <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="DA8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="DB8" t="n">
-        <v>51.724137931034</v>
+        <v>53.333333333333</v>
       </c>
       <c r="DC8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD8" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="DG8" t="n">
-        <v>428</v>
+        <v>466</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3883,40 +3883,40 @@
         <v>284441</v>
       </c>
       <c r="E10" t="n">
-        <v>6.6285714285714</v>
+        <v>6.6545454545455</v>
       </c>
       <c r="F10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
-        <v>954</v>
+        <v>1026</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>2.6132</v>
+        <v>3.1827</v>
       </c>
       <c r="L10" t="n">
-        <v>477</v>
+        <v>342</v>
       </c>
       <c r="M10" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
         <v>5</v>
       </c>
       <c r="P10" t="n">
-        <v>7.4074074074074</v>
+        <v>10.344827586207</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -3928,13 +3928,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.92266758</v>
+        <v>0.92726328</v>
       </c>
       <c r="AB10" t="n">
-        <v>508</v>
+        <v>542</v>
       </c>
       <c r="AC10" t="n">
         <v>3</v>
@@ -3961,22 +3961,22 @@
         <v>9</v>
       </c>
       <c r="AE10" t="n">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="AF10" t="n">
-        <v>83.89057750759901</v>
+        <v>84.50704225352101</v>
       </c>
       <c r="AG10" t="n">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="AH10" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="AI10" t="n">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="AJ10" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AK10" t="n">
         <v>3</v>
@@ -3988,7 +3988,7 @@
         <v>2</v>
       </c>
       <c r="AN10" t="n">
-        <v>25</v>
+        <v>22.222222222222</v>
       </c>
       <c r="AO10" t="n">
         <v>4</v>
@@ -4000,7 +4000,7 @@
         <v>4</v>
       </c>
       <c r="AR10" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AS10" t="n">
         <v>4</v>
@@ -4021,37 +4021,37 @@
         <v>0</v>
       </c>
       <c r="AY10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ10" t="n">
-        <v>38.095238095238</v>
+        <v>40.909090909091</v>
       </c>
       <c r="BA10" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="BB10" t="n">
-        <v>46.762589928058</v>
+        <v>46.527777777778</v>
       </c>
       <c r="BC10" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BD10" t="n">
-        <v>42.168674698795</v>
+        <v>42.528735632184</v>
       </c>
       <c r="BE10" t="n">
         <v>30</v>
       </c>
       <c r="BF10" t="n">
-        <v>53.571428571429</v>
+        <v>52.631578947368</v>
       </c>
       <c r="BG10" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="BH10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BI10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BJ10" t="n">
         <v>1</v>
@@ -4069,28 +4069,28 @@
         <v>0</v>
       </c>
       <c r="BO10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP10" t="n">
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>139.2</v>
+        <v>146.4</v>
       </c>
       <c r="BR10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT10" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
       </c>
       <c r="BV10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BW10" t="n">
         <v>0</v>
@@ -4102,13 +4102,13 @@
         <v>0</v>
       </c>
       <c r="BZ10" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CA10" t="n">
         <v>2</v>
       </c>
       <c r="CB10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CC10" t="n">
         <v>11</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CK10" t="n">
         <v>0</v>
@@ -4159,16 +4159,16 @@
         <v>9</v>
       </c>
       <c r="CS10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CT10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CU10" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="CV10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CW10" t="n">
         <v>0</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="DG10" t="n">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4239,16 +4239,16 @@
         <v>945062</v>
       </c>
       <c r="E11" t="n">
-        <v>6.5947368421053</v>
+        <v>6.59</v>
       </c>
       <c r="F11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H11" t="n">
-        <v>1369</v>
+        <v>1441</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -4260,7 +4260,7 @@
         <v>2.3223</v>
       </c>
       <c r="L11" t="n">
-        <v>1369</v>
+        <v>1441</v>
       </c>
       <c r="M11" t="n">
         <v>29</v>
@@ -4305,37 +4305,37 @@
         <v>2</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.95455129</v>
+        <v>1.96226809</v>
       </c>
       <c r="AB11" t="n">
-        <v>689</v>
+        <v>730</v>
       </c>
       <c r="AC11" t="n">
         <v>2</v>
       </c>
       <c r="AD11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>405</v>
+        <v>434</v>
       </c>
       <c r="AF11" t="n">
-        <v>84.375</v>
+        <v>84.600389863548</v>
       </c>
       <c r="AG11" t="n">
-        <v>480</v>
+        <v>513</v>
       </c>
       <c r="AH11" t="n">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="AI11" t="n">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="AJ11" t="n">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL11" t="n">
         <v>50</v>
@@ -4350,19 +4350,19 @@
         <v>8</v>
       </c>
       <c r="AP11" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AQ11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR11" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AS11" t="n">
         <v>11</v>
       </c>
       <c r="AT11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU11" t="n">
         <v>6</v>
@@ -4377,22 +4377,22 @@
         <v>1</v>
       </c>
       <c r="AY11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ11" t="n">
-        <v>23.809523809524</v>
+        <v>25</v>
       </c>
       <c r="BA11" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="BB11" t="n">
-        <v>40.322580645161</v>
+        <v>40.769230769231</v>
       </c>
       <c r="BC11" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="BD11" t="n">
-        <v>43.877551020408</v>
+        <v>44.230769230769</v>
       </c>
       <c r="BE11" t="n">
         <v>7</v>
@@ -4401,7 +4401,7 @@
         <v>26.923076923077</v>
       </c>
       <c r="BG11" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="BH11" t="n">
         <v>16</v>
@@ -4425,22 +4425,22 @@
         <v>3</v>
       </c>
       <c r="BO11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BP11" t="n">
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>125.3</v>
+        <v>131.8</v>
       </c>
       <c r="BR11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS11" t="n">
         <v>3</v>
       </c>
       <c r="BT11" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -4464,10 +4464,10 @@
         <v>13</v>
       </c>
       <c r="CB11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CC11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CD11" t="n">
         <v>6</v>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CK11" t="n">
         <v>0</v>
@@ -4512,16 +4512,16 @@
         <v>0</v>
       </c>
       <c r="CR11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CS11" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="CT11" t="n">
         <v>7</v>
       </c>
       <c r="CU11" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="CV11" t="n">
         <v>19</v>
@@ -4536,13 +4536,13 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="DA11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="DB11" t="n">
-        <v>37.037037037037</v>
+        <v>41.379310344828</v>
       </c>
       <c r="DC11" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="DG11" t="n">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -4951,16 +4951,16 @@
         <v>930189</v>
       </c>
       <c r="E13" t="n">
-        <v>6.9</v>
+        <v>6.915</v>
       </c>
       <c r="F13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
         <v>8</v>
       </c>
       <c r="H13" t="n">
-        <v>907</v>
+        <v>925</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -4972,7 +4972,7 @@
         <v>1.2769</v>
       </c>
       <c r="L13" t="n">
-        <v>907</v>
+        <v>925</v>
       </c>
       <c r="M13" t="n">
         <v>14</v>
@@ -5014,49 +5014,49 @@
         <v>1</v>
       </c>
       <c r="Z13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.20576408</v>
+        <v>1.41530708</v>
       </c>
       <c r="AB13" t="n">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="AC13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="AF13" t="n">
-        <v>90.064794816415</v>
+        <v>90.254237288136</v>
       </c>
       <c r="AG13" t="n">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="AH13" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AI13" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="AJ13" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AK13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL13" t="n">
-        <v>78.125</v>
+        <v>78.787878787879</v>
       </c>
       <c r="AM13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN13" t="n">
-        <v>42.857142857143</v>
+        <v>45.454545454545</v>
       </c>
       <c r="AO13" t="n">
         <v>6</v>
@@ -5068,7 +5068,7 @@
         <v>4</v>
       </c>
       <c r="AR13" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AS13" t="n">
         <v>2</v>
@@ -5095,16 +5095,16 @@
         <v>50</v>
       </c>
       <c r="BA13" t="n">
+        <v>33</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>56.896551724138</v>
+      </c>
+      <c r="BC13" t="n">
         <v>31</v>
       </c>
-      <c r="BB13" t="n">
-        <v>55.357142857143</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>29</v>
-      </c>
       <c r="BD13" t="n">
-        <v>61.702127659574</v>
+        <v>63.265306122449</v>
       </c>
       <c r="BE13" t="n">
         <v>2</v>
@@ -5119,10 +5119,10 @@
         <v>6</v>
       </c>
       <c r="BI13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK13" t="n">
         <v>1</v>
@@ -5143,13 +5143,13 @@
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>131.1</v>
+        <v>138.3</v>
       </c>
       <c r="BR13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT13" t="n">
         <v>46</v>
@@ -5179,10 +5179,10 @@
         <v>7</v>
       </c>
       <c r="CC13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CD13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CE13" t="n">
         <v>0</v>
@@ -5224,13 +5224,13 @@
         <v>0</v>
       </c>
       <c r="CR13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CS13" t="n">
         <v>6</v>
       </c>
       <c r="CT13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CU13" t="n">
         <v>25</v>
@@ -5248,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="DA13" t="n">
         <v>8</v>
@@ -5266,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="DG13" t="n">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -5663,16 +5663,16 @@
         <v>965893</v>
       </c>
       <c r="E15" t="n">
-        <v>7.0947368421053</v>
+        <v>7.13</v>
       </c>
       <c r="F15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H15" t="n">
-        <v>1627</v>
+        <v>1717</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -5684,7 +5684,7 @@
         <v>2.0399</v>
       </c>
       <c r="L15" t="n">
-        <v>813.5</v>
+        <v>858.5</v>
       </c>
       <c r="M15" t="n">
         <v>14</v>
@@ -5729,10 +5729,10 @@
         <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.9587984000000001</v>
+        <v>0.9759104</v>
       </c>
       <c r="AB15" t="n">
-        <v>1278</v>
+        <v>1395</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -5741,52 +5741,52 @@
         <v>12</v>
       </c>
       <c r="AE15" t="n">
-        <v>938</v>
+        <v>1032</v>
       </c>
       <c r="AF15" t="n">
-        <v>90.279114533205</v>
+        <v>90.288713910761</v>
       </c>
       <c r="AG15" t="n">
-        <v>1039</v>
+        <v>1143</v>
       </c>
       <c r="AH15" t="n">
-        <v>542</v>
+        <v>603</v>
       </c>
       <c r="AI15" t="n">
-        <v>396</v>
+        <v>429</v>
       </c>
       <c r="AJ15" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="AK15" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AL15" t="n">
-        <v>51.351351351351</v>
+        <v>53.571428571429</v>
       </c>
       <c r="AM15" t="n">
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>27.272727272727</v>
+        <v>25</v>
       </c>
       <c r="AO15" t="n">
         <v>9</v>
       </c>
       <c r="AP15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ15" t="n">
         <v>1</v>
       </c>
       <c r="AR15" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AS15" t="n">
         <v>7</v>
       </c>
       <c r="AT15" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU15" t="n">
         <v>3</v>
@@ -5801,37 +5801,37 @@
         <v>1</v>
       </c>
       <c r="AY15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ15" t="n">
-        <v>50</v>
+        <v>53.333333333333</v>
       </c>
       <c r="BA15" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="BB15" t="n">
-        <v>57.894736842105</v>
+        <v>58.895705521472</v>
       </c>
       <c r="BC15" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="BD15" t="n">
-        <v>57.142857142857</v>
+        <v>59.756097560976</v>
       </c>
       <c r="BE15" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="BF15" t="n">
-        <v>58.666666666667</v>
+        <v>58.024691358025</v>
       </c>
       <c r="BG15" t="n">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="BH15" t="n">
         <v>11</v>
       </c>
       <c r="BI15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BJ15" t="n">
         <v>2</v>
@@ -5849,22 +5849,22 @@
         <v>7</v>
       </c>
       <c r="BO15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BP15" t="n">
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>134.8</v>
+        <v>142.6</v>
       </c>
       <c r="BR15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS15" t="n">
         <v>3</v>
       </c>
       <c r="BT15" t="n">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -5876,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="BX15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY15" t="n">
         <v>1</v>
@@ -5891,10 +5891,10 @@
         <v>9</v>
       </c>
       <c r="CC15" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="CD15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CE15" t="n">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CK15" t="n">
         <v>0</v>
@@ -5939,16 +5939,16 @@
         <v>11</v>
       </c>
       <c r="CS15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CT15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CU15" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="CV15" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="CW15" t="n">
         <v>0</v>
@@ -5960,13 +5960,13 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="DA15" t="n">
         <v>15</v>
       </c>
       <c r="DB15" t="n">
-        <v>60</v>
+        <v>57.692307692308</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
@@ -5978,13 +5978,13 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>573</v>
+        <v>637</v>
       </c>
       <c r="DG15" t="n">
-        <v>466</v>
+        <v>506</v>
       </c>
       <c r="DH15" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="DI15" t="n">
         <v>9</v>
@@ -6019,16 +6019,16 @@
         <v>788255</v>
       </c>
       <c r="E16" t="n">
-        <v>7.0315789473684</v>
+        <v>7.045</v>
       </c>
       <c r="F16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H16" t="n">
-        <v>1605</v>
+        <v>1695</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -6085,10 +6085,10 @@
         <v>2</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.77070597</v>
+        <v>0.80339527</v>
       </c>
       <c r="AB16" t="n">
-        <v>1329</v>
+        <v>1438</v>
       </c>
       <c r="AC16" t="n">
         <v>2</v>
@@ -6097,28 +6097,28 @@
         <v>3</v>
       </c>
       <c r="AE16" t="n">
-        <v>899</v>
+        <v>988</v>
       </c>
       <c r="AF16" t="n">
-        <v>89.541832669323</v>
+        <v>89.818181818182</v>
       </c>
       <c r="AG16" t="n">
-        <v>1004</v>
+        <v>1100</v>
       </c>
       <c r="AH16" t="n">
-        <v>561</v>
+        <v>605</v>
       </c>
       <c r="AI16" t="n">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="AJ16" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AK16" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AL16" t="n">
-        <v>47.826086956522</v>
+        <v>49.350649350649</v>
       </c>
       <c r="AM16" t="n">
         <v>3</v>
@@ -6130,19 +6130,19 @@
         <v>20</v>
       </c>
       <c r="AP16" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AQ16" t="n">
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AS16" t="n">
         <v>14</v>
       </c>
       <c r="AT16" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AU16" t="n">
         <v>2</v>
@@ -6163,25 +6163,25 @@
         <v>50</v>
       </c>
       <c r="BA16" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="BB16" t="n">
-        <v>53.153153153153</v>
+        <v>55.172413793103</v>
       </c>
       <c r="BC16" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="BD16" t="n">
-        <v>57.647058823529</v>
+        <v>58.620689655172</v>
       </c>
       <c r="BE16" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BF16" t="n">
-        <v>38.461538461538</v>
+        <v>44.827586206897</v>
       </c>
       <c r="BG16" t="n">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="BH16" t="n">
         <v>19</v>
@@ -6205,22 +6205,22 @@
         <v>8</v>
       </c>
       <c r="BO16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BP16" t="n">
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>133.6</v>
+        <v>140.9</v>
       </c>
       <c r="BR16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS16" t="n">
         <v>2</v>
       </c>
       <c r="BT16" t="n">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
@@ -6247,28 +6247,28 @@
         <v>3</v>
       </c>
       <c r="CC16" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="CD16" t="n">
+        <v>16</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ16" t="n">
         <v>13</v>
-      </c>
-      <c r="CE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ16" t="n">
-        <v>12</v>
       </c>
       <c r="CK16" t="n">
         <v>0</v>
@@ -6316,13 +6316,13 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="DA16" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="DB16" t="n">
-        <v>59.090909090909</v>
+        <v>60.869565217391</v>
       </c>
       <c r="DC16" t="n">
         <v>0</v>
@@ -6334,16 +6334,16 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>592</v>
+        <v>638</v>
       </c>
       <c r="DG16" t="n">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="DH16" t="n">
         <v>0</v>
       </c>
       <c r="DI16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="DJ16" t="n">
         <v>2166322</v>
@@ -6375,16 +6375,16 @@
         <v>1390489</v>
       </c>
       <c r="E17" t="n">
-        <v>7.0111111111111</v>
+        <v>6.9894736842105</v>
       </c>
       <c r="F17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H17" t="n">
-        <v>1385</v>
+        <v>1475</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -6396,7 +6396,7 @@
         <v>0.8491</v>
       </c>
       <c r="L17" t="n">
-        <v>692.5</v>
+        <v>737.5</v>
       </c>
       <c r="M17" t="n">
         <v>14</v>
@@ -6441,10 +6441,10 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.61509211</v>
+        <v>2.64108691</v>
       </c>
       <c r="AB17" t="n">
-        <v>945</v>
+        <v>1034</v>
       </c>
       <c r="AC17" t="n">
         <v>2</v>
@@ -6453,52 +6453,52 @@
         <v>28</v>
       </c>
       <c r="AE17" t="n">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="AF17" t="n">
-        <v>84.724689165187</v>
+        <v>85.232744783307</v>
       </c>
       <c r="AG17" t="n">
-        <v>563</v>
+        <v>623</v>
       </c>
       <c r="AH17" t="n">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="AI17" t="n">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="AJ17" t="n">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="AK17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL17" t="n">
-        <v>50.943396226415</v>
+        <v>50.909090909091</v>
       </c>
       <c r="AM17" t="n">
         <v>26</v>
       </c>
       <c r="AN17" t="n">
-        <v>29.885057471264</v>
+        <v>28.888888888889</v>
       </c>
       <c r="AO17" t="n">
         <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AQ17" t="n">
         <v>1</v>
       </c>
       <c r="AR17" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AS17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AT17" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AU17" t="n">
         <v>4</v>
@@ -6516,31 +6516,31 @@
         <v>8</v>
       </c>
       <c r="AZ17" t="n">
-        <v>44.444444444444</v>
+        <v>40</v>
       </c>
       <c r="BA17" t="n">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="BB17" t="n">
-        <v>53.153153153153</v>
+        <v>51.908396946565</v>
       </c>
       <c r="BC17" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="BD17" t="n">
-        <v>52.325581395349</v>
+        <v>53.061224489796</v>
       </c>
       <c r="BE17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BF17" t="n">
-        <v>56</v>
+        <v>48.484848484848</v>
       </c>
       <c r="BG17" t="n">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="BH17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BI17" t="n">
         <v>8</v>
@@ -6549,7 +6549,7 @@
         <v>2</v>
       </c>
       <c r="BK17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL17" t="n">
         <v>0</v>
@@ -6561,22 +6561,22 @@
         <v>6</v>
       </c>
       <c r="BO17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BP17" t="n">
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>126.2</v>
+        <v>132.8</v>
       </c>
       <c r="BR17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS17" t="n">
         <v>2</v>
       </c>
       <c r="BT17" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
@@ -6603,10 +6603,10 @@
         <v>14</v>
       </c>
       <c r="CC17" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CD17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CE17" t="n">
         <v>0</v>
@@ -6624,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CK17" t="n">
         <v>0</v>
@@ -6651,16 +6651,16 @@
         <v>28</v>
       </c>
       <c r="CS17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CT17" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="CU17" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="CV17" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="CW17" t="n">
         <v>0</v>
@@ -6672,13 +6672,13 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="DA17" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="DB17" t="n">
-        <v>62.068965517241</v>
+        <v>61.111111111111</v>
       </c>
       <c r="DC17" t="n">
         <v>0</v>
@@ -6690,10 +6690,10 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="DG17" t="n">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="DH17" t="n">
         <v>1</v>
@@ -6731,16 +6731,16 @@
         <v>826195</v>
       </c>
       <c r="E18" t="n">
-        <v>6.9227272727273</v>
+        <v>6.9260869565217</v>
       </c>
       <c r="F18" t="n">
+        <v>23</v>
+      </c>
+      <c r="G18" t="n">
         <v>22</v>
       </c>
-      <c r="G18" t="n">
-        <v>21</v>
-      </c>
       <c r="H18" t="n">
-        <v>1856</v>
+        <v>1946</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -6797,10 +6797,10 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.11730947</v>
+        <v>0.12355172</v>
       </c>
       <c r="AB18" t="n">
-        <v>1270</v>
+        <v>1364</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -6809,28 +6809,28 @@
         <v>2</v>
       </c>
       <c r="AE18" t="n">
-        <v>975</v>
+        <v>1058</v>
       </c>
       <c r="AF18" t="n">
-        <v>92.504743833017</v>
+        <v>92.563429571304</v>
       </c>
       <c r="AG18" t="n">
-        <v>1054</v>
+        <v>1143</v>
       </c>
       <c r="AH18" t="n">
-        <v>702</v>
+        <v>750</v>
       </c>
       <c r="AI18" t="n">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="AJ18" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AK18" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AL18" t="n">
-        <v>56.603773584906</v>
+        <v>58.260869565217</v>
       </c>
       <c r="AM18" t="n">
         <v>0</v>
@@ -6848,13 +6848,13 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AS18" t="n">
         <v>3</v>
       </c>
       <c r="AT18" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AU18" t="n">
         <v>2</v>
@@ -6875,10 +6875,10 @@
         <v>0</v>
       </c>
       <c r="BA18" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BB18" t="n">
-        <v>61.607142857143</v>
+        <v>61.946902654867</v>
       </c>
       <c r="BC18" t="n">
         <v>18</v>
@@ -6887,13 +6887,13 @@
         <v>48.648648648649</v>
       </c>
       <c r="BE18" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BF18" t="n">
-        <v>68</v>
+        <v>68.421052631579</v>
       </c>
       <c r="BG18" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="BH18" t="n">
         <v>17</v>
@@ -6917,22 +6917,22 @@
         <v>9</v>
       </c>
       <c r="BO18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BP18" t="n">
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>152.3</v>
+        <v>159.3</v>
       </c>
       <c r="BR18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS18" t="n">
         <v>0</v>
       </c>
       <c r="BT18" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
@@ -6959,28 +6959,28 @@
         <v>0</v>
       </c>
       <c r="CC18" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="CD18" t="n">
+        <v>18</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ18" t="n">
         <v>17</v>
-      </c>
-      <c r="CE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ18" t="n">
-        <v>16</v>
       </c>
       <c r="CK18" t="n">
         <v>0</v>
@@ -7028,7 +7028,7 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="DA18" t="n">
         <v>9</v>
@@ -7046,10 +7046,10 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>721</v>
+        <v>772</v>
       </c>
       <c r="DG18" t="n">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="DH18" t="n">
         <v>4</v>
@@ -7090,13 +7090,13 @@
         <v>6.94</v>
       </c>
       <c r="F19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19" t="n">
         <v>10</v>
       </c>
       <c r="H19" t="n">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -7108,7 +7108,7 @@
         <v>0.524</v>
       </c>
       <c r="L19" t="n">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
@@ -7156,7 +7156,7 @@
         <v>0.34612019</v>
       </c>
       <c r="AB19" t="n">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>80.555555555556</v>
       </c>
       <c r="BG19" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BH19" t="n">
         <v>17</v>
@@ -7443,16 +7443,16 @@
         <v>1409700</v>
       </c>
       <c r="E20" t="n">
-        <v>6.7333333333333</v>
+        <v>6.7307692307692</v>
       </c>
       <c r="F20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>284</v>
+        <v>361</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -7461,13 +7461,13 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0633</v>
+        <v>0.0784</v>
       </c>
       <c r="L20" t="n">
-        <v>284</v>
+        <v>361</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N20" t="n">
         <v>2</v>
@@ -7476,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>33.333333333333</v>
+        <v>25</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -7506,49 +7506,49 @@
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.34620076</v>
+        <v>0.57143576</v>
       </c>
       <c r="AB20" t="n">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="AC20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE20" t="n">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="AF20" t="n">
-        <v>81.818181818182</v>
+        <v>80.625</v>
       </c>
       <c r="AG20" t="n">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="AH20" t="n">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AI20" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="AJ20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL20" t="n">
-        <v>40</v>
+        <v>38.888888888889</v>
       </c>
       <c r="AM20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AN20" t="n">
-        <v>33.333333333333</v>
+        <v>36.842105263158</v>
       </c>
       <c r="AO20" t="n">
         <v>2</v>
@@ -7560,16 +7560,16 @@
         <v>2</v>
       </c>
       <c r="AR20" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AS20" t="n">
         <v>4</v>
       </c>
       <c r="AT20" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AU20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV20" t="n">
         <v>0</v>
@@ -7587,16 +7587,16 @@
         <v>0</v>
       </c>
       <c r="BA20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB20" t="n">
-        <v>50</v>
+        <v>47.368421052632</v>
       </c>
       <c r="BC20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD20" t="n">
-        <v>44</v>
+        <v>41.379310344828</v>
       </c>
       <c r="BE20" t="n">
         <v>6</v>
@@ -7605,13 +7605,13 @@
         <v>66.666666666667</v>
       </c>
       <c r="BG20" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="BH20" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BI20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ20" t="n">
         <v>1</v>
@@ -7629,22 +7629,22 @@
         <v>0</v>
       </c>
       <c r="BO20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BP20" t="n">
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>80.8</v>
+        <v>87.5</v>
       </c>
       <c r="BR20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BS20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT20" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="BU20" t="n">
         <v>0</v>
@@ -7662,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="BZ20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA20" t="n">
         <v>3</v>
@@ -7671,7 +7671,7 @@
         <v>2</v>
       </c>
       <c r="CC20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CD20" t="n">
         <v>3</v>
@@ -7692,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="CJ20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CK20" t="n">
         <v>0</v>
@@ -7716,16 +7716,16 @@
         <v>0</v>
       </c>
       <c r="CR20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CS20" t="n">
         <v>4</v>
       </c>
       <c r="CT20" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="CU20" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CV20" t="n">
         <v>3</v>
@@ -7740,7 +7740,7 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="DA20" t="n">
         <v>3</v>
@@ -7758,10 +7758,10 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="DG20" t="n">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="DH20" t="n">
         <v>0</v>
@@ -8153,16 +8153,16 @@
         <v>191210</v>
       </c>
       <c r="E22" t="n">
-        <v>7.3136363636364</v>
+        <v>7.304347826087</v>
       </c>
       <c r="F22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H22" t="n">
-        <v>1946</v>
+        <v>2036</v>
       </c>
       <c r="I22" t="n">
         <v>5</v>
@@ -8217,10 +8217,10 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.01769957</v>
+        <v>0.01805929</v>
       </c>
       <c r="AB22" t="n">
-        <v>895</v>
+        <v>927</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -8229,28 +8229,28 @@
         <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="AF22" t="n">
-        <v>76.253687315634</v>
+        <v>76.462196861626</v>
       </c>
       <c r="AG22" t="n">
-        <v>678</v>
+        <v>701</v>
       </c>
       <c r="AH22" t="n">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="AI22" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ22" t="n">
         <v>13</v>
       </c>
       <c r="AK22" t="n">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AL22" t="n">
-        <v>41.287878787879</v>
+        <v>41.758241758242</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
@@ -8268,7 +8268,7 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AS22" t="n">
         <v>0</v>
@@ -8295,31 +8295,31 @@
         <v>100</v>
       </c>
       <c r="BA22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB22" t="n">
         <v>100</v>
       </c>
       <c r="BC22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD22" t="n">
         <v>100</v>
       </c>
       <c r="BE22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF22" t="n">
         <v>100</v>
       </c>
       <c r="BG22" t="n">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="BH22" t="n">
         <v>0</v>
       </c>
       <c r="BI22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ22" t="n">
         <v>0</v>
@@ -8331,28 +8331,28 @@
         <v>0</v>
       </c>
       <c r="BM22" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BN22" t="n">
         <v>9</v>
       </c>
       <c r="BO22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BP22" t="n">
         <v>2</v>
       </c>
       <c r="BQ22" t="n">
-        <v>160.9</v>
+        <v>168</v>
       </c>
       <c r="BR22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS22" t="n">
         <v>0</v>
       </c>
       <c r="BT22" t="n">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="BU22" t="n">
         <v>0</v>
@@ -8394,13 +8394,13 @@
         <v>7</v>
       </c>
       <c r="CH22" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="CI22" t="n">
         <v>16</v>
       </c>
       <c r="CJ22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CK22" t="n">
         <v>0</v>
@@ -8415,7 +8415,7 @@
         <v>4</v>
       </c>
       <c r="CO22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CP22" t="n">
         <v>0</v>
@@ -8448,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="DA22" t="n">
         <v>0</v>
@@ -8466,10 +8466,10 @@
         <v>13</v>
       </c>
       <c r="DF22" t="n">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="DG22" t="n">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="DH22" t="n">
         <v>100</v>
@@ -8486,7 +8486,7 @@
         </is>
       </c>
       <c r="DL22" t="n">
-        <v>9.425700000000001</v>
+        <v>8.955299999999999</v>
       </c>
     </row>
     <row r="23">

--- a/sofaplayer/Serie_A/Milan_stats.xlsx
+++ b/sofaplayer/Serie_A/Milan_stats.xlsx
@@ -5732,7 +5732,7 @@
         <v>0.9759104</v>
       </c>
       <c r="AB15" t="n">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -5807,16 +5807,16 @@
         <v>53.333333333333</v>
       </c>
       <c r="BA15" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="BB15" t="n">
-        <v>58.895705521472</v>
+        <v>59.146341463415</v>
       </c>
       <c r="BC15" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BD15" t="n">
-        <v>59.756097560976</v>
+        <v>60.240963855422</v>
       </c>
       <c r="BE15" t="n">
         <v>47</v>
@@ -5831,7 +5831,7 @@
         <v>11</v>
       </c>
       <c r="BI15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BJ15" t="n">
         <v>2</v>
@@ -8220,7 +8220,7 @@
         <v>0.01805929</v>
       </c>
       <c r="AB22" t="n">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -8295,13 +8295,13 @@
         <v>100</v>
       </c>
       <c r="BA22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB22" t="n">
         <v>100</v>
       </c>
       <c r="BC22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD22" t="n">
         <v>100</v>
@@ -8319,7 +8319,7 @@
         <v>0</v>
       </c>
       <c r="BI22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ22" t="n">
         <v>0</v>
